--- a/docs/CasiTest/ANSC_Piano_Test.xlsx
+++ b/docs/CasiTest/ANSC_Piano_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documenti\ANSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asqueglia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B6E83F-0B81-42DE-A8BC-F03DE7B9ACF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80828283-A923-4438-A894-5CB65358CAFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="8820" xr2:uid="{EEE50D2D-B9C6-4063-A2C4-D0687C6EB545}"/>
   </bookViews>
@@ -26,15 +26,15 @@
     <sheet name="Reg. Morte Trascrizione" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Elenco UC'!$A$1:$V$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Elenco UC'!$A$1:$Y$259</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Elenco UC Caso di servizio'!$A$1:$E$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Reg. Dich. Trasc._Cittadinanza'!$A$1:$O$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Reg. Dichiarazione Nascita'!$A$1:$P$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Reg. evento unione civile'!$A$1:$K$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Reg. Matrimonio'!$A$1:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Reg. Matrimonio'!$A$1:$L$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Reg. Morte Trascrizione'!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Reg. Riconoscimento Nascita'!$A$1:$L$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Reg. Trascrizione nascita'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Reg. Trascrizione nascita'!$A$1:$S$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -44,12 +44,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="1146">
   <si>
     <t>Etichette di riga</t>
   </si>
@@ -4183,10 +4194,6 @@
     </r>
   </si>
   <si>
-    <t>R0.6a
-(40 UC 11-05-2023)</t>
-  </si>
-  <si>
     <t>Release R0.6a
 Rilascio 12/05</t>
   </si>
@@ -4211,10 +4218,6 @@
     </r>
   </si>
   <si>
-    <t>R0.6a
-(1 UC 12-05-2023)</t>
-  </si>
-  <si>
     <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'usc da ostetrica o altro sanitario di bimbo nato morto</t>
   </si>
   <si>
@@ -4301,6 +4304,9 @@
   <si>
     <t>L'anno 2023 addì 27 del mese di aprile alle ore 11 e minuti 46 nella Casa Comunale avanti a me, ALAN TURING Ufficiale dello Stato Civile del Comune di ROMA (RM), per delega ricevuta, è comparsa MARGHERITA HACK, nata in ITALIA il 12/06/1922, con cittadinanza ITALIANA, residente in ANPR (RM), la quale come ostetrica mi ha dichiarato quanto segue: Il giorno 25 del mese di aprile dell'anno 2023 alle ore 12 e minuti 00, da una donna che non consente di essere nominata è nato un bambino di sesso Maschile. A detto bambino che non mi viene presentato, ma della cui nascita io mi sono accertato, a mezzo di attestazione di nascita, la dichiarante dà il nome di Giuseppe. la dichiarante afferma che il bambino medesimo è nato vivo, ma è deceduto prima che mi fosse resa la presente dichiarazione, come risulta comprovato da certificato medico che, munito del mio visto, inserisco nel volume degli allegati a questo registro. La dichiarante indica come segue le ragioni del ritardo nel rendere la presente dichiarazione: BOH. Il presente atto viene letto agli intervenuti, i quali tutti, insieme con me, lo sottoscrivono.
 ID 339612</t>
+  </si>
+  <si>
+    <t>Delta UC non testati</t>
   </si>
   <si>
     <r>
@@ -4326,10 +4332,91 @@
     <t>R0.7 (19 UC 26-05-2023)</t>
   </si>
   <si>
-    <t>Delta UC non ancora testati</t>
-  </si>
-  <si>
-    <t>Tutti gli UC sono comunque rilasciati e disponibili per il test</t>
+    <t>Post R0.7</t>
+  </si>
+  <si>
+    <t>ID bozza: 278806
+Oggi 16/03/2023 io sottoscritto LEONARDO DA VINCI Ufficiale dello stato civile del Comune di FIRENZE (FI), nella funzione di sostituto del sindaco ho ricevuto comunicazione scritta in data 01/03/2023 di Alessio CognomeFiglioXXX, nato in BRAIES (BZ) il 03/03/2023, con cittadinanza ITALIANA, residente in BAHREIN, il quale dichiara che, a seguito di provvedimento del Ministro dell'Interno in data 01/03/2023 è stato cambiato il cognome del proprio genitore ANNA MARIA DatiGenerali-VecchioCognomeGenitoreXXX in VINZANI e che, conseguentemente, è stato anche mutato il suo proprio cognome.
+Intende ora avvalersi della facoltà di cui all'art. 33, secondo comma, del D.P.R. 3 novembre 2000, n. 396, e dichiara di voler mantenere il cognome CognomeFiglioXXX precedentemente portato. A tal fine, ho visionato i seguenti documenti: Copia integrale dell'atto di nascita del dichiarante Atto cambiamento del cognome del genitore, muniti del mio visto, inserisco nel volume degli allegati a questo registro.</t>
+  </si>
+  <si>
+    <t>R0.6a (40 UC 11-05-2023)</t>
+  </si>
+  <si>
+    <t>R0.6a (1 UC 12-05-2023)</t>
+  </si>
+  <si>
+    <t>ID BOZZA: 343342
+Oggi 12/05/2023 io sottoscritto MARIE CURIE Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di sostituto del sindaco, ho ricevuto da GALILEO GALILEI, nato in PISA (PI) il 15/02/1964, con cittadinanza ITALIANA, residente in ANPR (RM) la richiesta Scritta in data 10/02/2023 di trascrivere ai sensi dell'art. 19 del D.P.R. 3 novembre 2000, n. 396 l'atto con estremi Numero 54543452426 redatto in data 09/05/2023 emesso da ATTODATRASCRIVERE proveniente da ALBANIA di cui mi consegna copia unitamente alla traduzione in lingua italiana e (ove prevista) alla legalizzazione. Aderendo a tale richiesta, provvedo alla trascrizione integrale del documento come segue: DATITRRTFDGRFJRFY Dopo di che, ho munito del mio visto ed inserito nel volume degli allegati a questo registro copia della richiesta di trascrizione.</t>
+  </si>
+  <si>
+    <t>ID atto: 347322
+Oggi 29/05/2023 io sottoscritto MARIE CURIE Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di delegato del sindaco, ho ricevuto da SABRINA GALILEI, nato in ROMA (RM) il 20/05/2023, con cittadinanza ITALIANA, residente in ANPR (RM) la richiesta Scritta in data 28/05/2023 di trascrivere ai sensi del art. 63 del D.P.R. n. 396/2000 l'atto con estremi Numero abc123 redatto in data 27/04/2023 emesso da Tribunale di Londra proveniente da REGNO UNITO di cui mi consegna copia unitamente alla traduzione in lingua italiana e (ove prevista) alla legalizzazione. Aderendo a tale richiesta, provvedo alla trascrizione integrale del documento come segue: prova111111111111 Dopo di che, ho munito del mio visto ed inserito nel volume degli allegati a questo registro copia della richiesta di trascrizione.</t>
+  </si>
+  <si>
+    <t>id bozza 347602
+composizione: Oggi 31/05/2023 io sottoscritto MARIE CURIE Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di delegato del sindaco, ho ricevuto da Tribunale la richiesta in data 30/05/2023 di trascrivere il documento con estremi: 23WER emesso da NOME ENTE PROVA in data 04/05/2023, di cui mi ha trasmesso copia. Aderendo a tale richiesta, provvedo alla trascrizione del documento come segue: PROVA1PROVA2PROVA3. Dopo di che, ho munito del mio visto ed inserito nel volume degli allegati a questo registro, la richiesta di trascrizione e la copia del documento trascritto.</t>
+  </si>
+  <si>
+    <t>ID ATTO: 344349
+Oggi 18/05/2023 io sottoscritto MARIE CURIE Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di sostituto del sindaco, ho ricevuto da MARCOLINO POLLO, nato in ROMA (RM) il 08/05/2023, con cittadinanza ITALIANA, residente in ANPR (RM) la richiesta Scritta in data 04/05/2023 di trascrivere l'atto con estremi Numero D34F5 redatto in data 24/04/2023 emesso da TRIBUNALE in ALESSANDRIA DELLA ROCCA (AG). Aderendo a tale richiesta, provvedo alla trascrizione integrale del documento come segue: FFFFFFFFFF. Dopo di che, ho munito del mio visto ed inserito nel volume degli allegati a questo registro copia della richiesta di trascrizione.</t>
+  </si>
+  <si>
+    <t>Post R0.7
+ (7 UC 8-06-2023)</t>
+  </si>
+  <si>
+    <t>Post R0.7 (7 UC 8-06-2023)</t>
+  </si>
+  <si>
+    <t>Post R0.7
+ (2 UC 9-06-2023)</t>
+  </si>
+  <si>
+    <t>ID ATTO: 347761
+Oggi 01/06/2023 io sottoscritto MARIE CURIE Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di delegato del sindaco, ho ricevuto il decreto del Tribunale di ACQUI (1929 - 1947) (AL) in data 30/05/2023 Numero D34F5, con il quale sono stato autorizzato a formare il presente atto ed è stato accertato che TEST TEST PROVA RIASSUNTO.</t>
+  </si>
+  <si>
+    <t>Post R0.7
+Rilascio 08/06</t>
+  </si>
+  <si>
+    <t>Post R0.7
+Rilascio 09/06</t>
+  </si>
+  <si>
+    <t>ID BOZZA: 343898
+Oggi 16/05/2023 io sottoscritto ALAN TURING Ufficiale dello stato civile del Comune di ROMA (RM), nella funzione di sostituto del sindaco, ho ricevuto da AUTORITAMITTENTE la richiesta in data 08/05/2023 di trascrivere il documento con estremi: Numero 444 emesso da AUTORITAMITTENTE proveniente da AFGHANISTAN di cui mi ha trasmesso copia. Aderendo a tale richiesta, provvedo alla trascrizione del documento come segue: wwwwwwwwww. Dopo di che, ho munito del mio visto ed inserito nel volume degli allegati a questo registro, la richiesta di trascrizione e la copia del documento trascritto</t>
+  </si>
+  <si>
+    <t>Post R0.7 (2 UC 9-06-2023)</t>
+  </si>
+  <si>
+    <t>Id bozza:350170
+Oggi 12/06/2023 avanti a me MARIE CURIE, Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di delegato del sindaco sono comparsi i signori LINUS TORVALDS e KATHERINE JOHNSON, i quali mi dichiarano: - di avere contratto matrimonio in data 16/05/2023, in AGRIGENTO, dinanzi a MARIE CURIE, di cui all'atto iscritto/trascritto nei registri dello stato civile del Comune di AGRIGENTO, con estremi numero 12345 data 16/05/2023 anno 2023; - di essere legalmente separati o divorziati a seguito di atto concluso innanzi a questo ufficio in data 12/06/2023, di cui all'atto iscritto al n. 888 anno 2023; - di essere parti in giudizio pendente, concernente la modifica delle condizioni di separazione o di divorzio tra gli stessi, ovvero concernente il divorzio tra gli stessi presso AUTORITAGIUDIZIALE; - di non essere genitori di figli minori; - di non essere genitori di figli maggiorenni incapaci; - di non essere genitori di figli maggiorenni portatori di handicap grave ai sensi dell'articolo 3, comma 3, della legge 5 febbraio 1992, n. 104; - di non essere genitori di figli maggiorenni economicamente non autosufficienti; - di non concordare tra di loro alcun patto di trasferimento patrimoniale; - di volere modificare le condizioni di separazione o di divorzio tra gli stessi come segue: hhhhhhhhhhhh. A tal fine mi hanno prodotto i seguenti documenti: Atto di matrimonio Certificato di residenza che, muniti del mio visto, inserisco nel volume degli allegati a questo registro. Il presente atto viene letto ai dichiaranti i quali, insieme con me, lo sottoscrivono.</t>
+  </si>
+  <si>
+    <t>Id bozza:343539
+Oggi 15/05/2023 io sottoscritto MARIE CURIE Ufficiale dello stato civile del Comune di ANPR (RM), nella funzione di sostituto del sindaco, ho ricevuto da ATTODATRASCRIVERE la richiesta in data 26/01/2023 di trascrivere il documento con estremi: Numero 666 redatto in data 12/05/2023 emesso da ATTODATRASCRIVERE proveniente da ANGOLA di cui mi ha trasmesso copia. Aderendo a tale richiesta, provvedo alla trascrizione del documento come segue: JJJJJJJJJ. Dopo di che, ho munito del mio visto ed inserito nel volume degli allegati a questo registro, la richiesta di trascrizione e la copia del documento trascritto.</t>
+  </si>
+  <si>
+    <t>ID ATTO: 344497
+Oggi 18/05/2023 avanti a me ALAN TURING Ufficiale dello stato civile del Comune di ROMA (RM), nella funzione di sostituto del sindaco è comparso DIANA SERAFINI, nato in ROMA (RM) il 20/02/2023, con cittadinanza ITALIANA, residente in ANPR (RM), il quale dichiara che, a seguito di provvedimento del Ministro dell'Interno in data 17/05/2023 è stato   cambiato il cognome del proprio genitore MARIE Curie in CURIE e che, conseguentemente, è stato anche mutato il suo proprio cognome. Intende ora avvalersi della facoltà di cui all'art. 33, secondo comma, del D.P.R. 3 novembre 2000, n. 396, e dichiara di voler aggiungere al cognome SERAFINI quello di CURIE. A tal fine, mi ha prodotto i seguenti documenti: Atto cambiamento del cognome del genitore Copia integrale dell'atto di nascita del dichiarante I documenti prodotti, muniti del mio visto, inserisco nel volume degli allegati a questo registro. Il presente atto viene letto agli intervenuti, i quali tutti, insieme con me, lo sottoscrivono.</t>
+  </si>
+  <si>
+    <t>ID ATTO: 344240
+Oggi 17/05/2023 avanti a me ALAN TURING Ufficiale dello stato civile del Comune di ROMA (RM), nella funzione di sostituto del sindaco, è comparso MARCOLINO POLLO, nato in ROMA (RM) il 08/05/2023, con cittadinanza ITALIANA, residente in ANPR (RM), il quale dichiara di essere stato riconosciuto come figlio dalla madre MARGHERITA HACK con atto con estremi numero 2453673 data 24/04/2023 anno 2023 del comune ACQUI (1929 - 1929) (AL) e di essere stato successivamente riconosciuto dal padre GALILEO GALILEI con atto con estremi numero 1234 data 08/05/2023 anno 2023 del comune AGRIGENTO (AG) Intende ora assumere il cognome GALILEI del padre aggiungendolo a quello della madre. A tal fine mi hanno prodotto i seguenti documenti: Copia integrale dell'atto di nascita del figlio che viene riconosciuto Copia dell'atto di riconoscimento effettuato dell'altro genitore I documenti prodotti e/o acquisiti, muniti del mio visto, inserisco nel volume degli allegati a questo registro.</t>
+  </si>
+  <si>
+    <t>Post R0.7 (2 UC 15-06-2023)</t>
+  </si>
+  <si>
+    <t>Post R0.7
+Rilascio 15/06</t>
+  </si>
+  <si>
+    <t>Post R0.7
+ (2 UC 15-06-2023)</t>
   </si>
 </sst>
 </file>
@@ -4623,7 +4710,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4872,7 +4959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4899,7 +4986,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Colore 5" xfId="3" builtinId="46"/>
@@ -4908,7 +4994,7 @@
     <cellStyle name="Valore non valido" xfId="1" builtinId="27"/>
     <cellStyle name="Valore valido" xfId="4" builtinId="26"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="133">
     <dxf>
       <fill>
         <patternFill>
@@ -5463,6 +5549,46 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -5802,11 +5928,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Partipilo Isabella" refreshedDate="45075.394163657409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="258" xr:uid="{57D43DFE-2E3C-4CDF-9600-A27739F27F54}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Partipilo Isabella" refreshedDate="45092.747036574074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="258" xr:uid="{29F4882D-87DC-447C-9062-9018734B212E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:V259" sheet="Elenco UC"/>
+    <worksheetSource ref="A1:Y259" sheet="Elenco UC"/>
   </cacheSource>
-  <cacheFields count="22">
+  <cacheFields count="25">
     <cacheField name="UC Rilasciati" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
@@ -5900,6 +6026,15 @@
     <cacheField name="R0.7_x000a_ (19 UC 26-05-2023)" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Post R0.7_x000a_ (7 UC 8-06-2023)" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Post R0.7_x000a_ (2 UC 9-06-2023)" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Post R0.7_x000a_ (2 UC 15-06-2023)" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -5934,6 +6069,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -5958,6 +6096,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -5982,6 +6123,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6006,6 +6150,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6030,6 +6177,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6054,6 +6204,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6078,6 +6231,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6102,6 +6258,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6126,6 +6285,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6150,6 +6312,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6174,6 +6339,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6198,6 +6366,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6222,6 +6393,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6246,6 +6420,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6270,6 +6447,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6294,6 +6474,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6318,6 +6501,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6342,6 +6528,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6366,6 +6555,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6390,6 +6582,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6414,6 +6609,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6438,6 +6636,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6462,6 +6663,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6486,6 +6690,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6510,6 +6717,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6534,6 +6744,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6558,6 +6771,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6582,6 +6798,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6606,6 +6825,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6630,6 +6852,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6654,6 +6879,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6678,6 +6906,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6702,6 +6933,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6726,6 +6960,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6750,6 +6987,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6774,6 +7014,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6798,6 +7041,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6822,6 +7068,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6846,6 +7095,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6870,6 +7122,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6894,9 +7149,12 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.6.3"/>
     <s v="Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio"/>
     <x v="0"/>
@@ -6916,6 +7174,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
     <m/>
     <m/>
   </r>
@@ -6942,6 +7203,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -6958,6 +7222,9 @@
     <x v="0"/>
     <x v="0"/>
     <s v="R0.5"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6990,6 +7257,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7014,6 +7284,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7038,6 +7311,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7053,6 +7329,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7086,6 +7365,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7110,6 +7392,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7134,6 +7419,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7158,6 +7446,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -7182,6 +7473,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7199,6 +7493,9 @@
     <x v="0"/>
     <m/>
     <s v="R0.5"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7230,6 +7527,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7254,6 +7554,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7278,6 +7581,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7302,6 +7608,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7317,6 +7626,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7350,6 +7662,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7365,6 +7680,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7398,6 +7716,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7417,6 +7738,9 @@
     <m/>
     <m/>
     <s v="R0.6"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7446,6 +7770,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7461,6 +7788,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7494,6 +7824,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7509,6 +7842,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7542,6 +7878,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7566,6 +7905,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7590,6 +7932,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7614,6 +7959,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7636,6 +7984,9 @@
     <m/>
     <m/>
     <s v="R0.6a"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -7662,6 +8013,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7686,6 +8040,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7708,6 +8065,9 @@
     <m/>
     <m/>
     <s v="R0.6a"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -7734,6 +8094,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7758,6 +8121,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7782,6 +8148,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7804,6 +8173,9 @@
     <m/>
     <m/>
     <s v="R0.6a"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -7830,6 +8202,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7852,6 +8227,9 @@
     <m/>
     <m/>
     <s v="R0.6a"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -7878,6 +8256,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -7902,6 +8283,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7926,6 +8310,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7950,6 +8337,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7974,6 +8364,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -7994,6 +8387,9 @@
     <m/>
     <m/>
     <s v="R0.6a"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -8022,6 +8418,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8043,6 +8442,9 @@
     <m/>
     <m/>
     <s v="R0.6a"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -8070,6 +8472,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8094,6 +8499,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8110,6 +8518,9 @@
     <x v="0"/>
     <x v="0"/>
     <s v="R0.5"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -8142,6 +8553,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8166,6 +8580,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8190,6 +8607,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8214,6 +8634,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8238,6 +8661,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8262,6 +8688,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8286,6 +8715,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8310,6 +8742,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8334,6 +8769,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8358,6 +8796,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8382,6 +8823,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8406,6 +8850,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8430,6 +8877,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8454,6 +8904,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8478,6 +8931,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8502,6 +8958,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8526,6 +8985,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8550,6 +9012,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8574,6 +9039,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8598,6 +9066,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8622,6 +9093,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8646,6 +9120,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8670,6 +9147,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8694,6 +9174,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8718,6 +9201,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8742,6 +9228,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8766,6 +9255,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8790,6 +9282,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8814,6 +9309,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8838,6 +9336,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8862,6 +9363,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8886,6 +9390,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8910,6 +9417,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8934,6 +9444,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8958,6 +9471,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -8982,6 +9498,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9006,6 +9525,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9030,6 +9552,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9054,6 +9579,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9078,6 +9606,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9102,6 +9633,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9126,6 +9660,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9150,6 +9687,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9174,6 +9714,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9198,6 +9741,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9222,6 +9768,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9246,6 +9795,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9270,6 +9822,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9294,6 +9849,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9318,6 +9876,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9342,6 +9903,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9366,6 +9930,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9390,6 +9957,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9414,6 +9984,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9438,6 +10011,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9462,6 +10038,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9486,6 +10065,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9510,6 +10092,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9534,6 +10119,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9558,6 +10146,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9582,6 +10173,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9606,6 +10200,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9630,6 +10227,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9654,6 +10254,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9678,6 +10281,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9702,6 +10308,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9726,6 +10335,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9750,6 +10362,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9774,6 +10389,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9798,6 +10416,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9822,6 +10443,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9846,6 +10470,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9870,6 +10497,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9894,6 +10524,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9918,6 +10551,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9942,6 +10578,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9966,6 +10605,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -9990,6 +10632,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10014,6 +10659,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10038,6 +10686,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10062,6 +10713,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10086,6 +10740,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10110,6 +10767,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10134,6 +10794,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10158,6 +10821,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10182,6 +10848,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10206,6 +10875,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10230,6 +10902,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10254,6 +10929,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10278,6 +10956,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10302,6 +10983,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10326,6 +11010,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10350,6 +11037,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10374,6 +11064,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10398,6 +11091,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10422,6 +11118,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10446,6 +11145,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10470,6 +11172,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10494,6 +11199,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10518,6 +11226,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10542,6 +11253,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10566,9 +11280,12 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.6.1"/>
     <s v="FORMAZIONE DELL'ATTO DI NASCITA SU AUTORIZZAZIONE TRIBUNALE IN CASO DI OMESSA DENUNCIA"/>
     <x v="0"/>
@@ -10590,9 +11307,12 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <s v="Post R0.7"/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.6.2"/>
     <s v="Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte"/>
     <x v="0"/>
@@ -10614,9 +11334,12 @@
     <m/>
     <m/>
     <m/>
+    <s v="Post R0.7"/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.6.4"/>
     <s v="Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternità successivamente al riconoscimento materno "/>
     <x v="0"/>
@@ -10636,6 +11359,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
     <m/>
     <m/>
   </r>
@@ -10662,6 +11388,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10686,9 +11415,12 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.2.1"/>
     <s v="Trascrizione della sentenza straniera di dichiarazione giudiziale di  maternità richiesta dall’interessato "/>
     <x v="0"/>
@@ -10710,9 +11442,12 @@
     <m/>
     <m/>
     <m/>
+    <s v="Post R0.7"/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.2.4"/>
     <s v="Trascrizione richiesta dall’interessato della sentenza straniera di disconoscimento di paternità"/>
     <x v="0"/>
@@ -10734,9 +11469,12 @@
     <m/>
     <m/>
     <m/>
+    <s v="Post R0.7"/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.2.5"/>
     <s v="Trascrizione della sentenza straniera di disconoscimento di paternità su richiesta dell’autorità diplomatica o consolare"/>
     <x v="0"/>
@@ -10756,6 +11494,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
     <m/>
     <m/>
   </r>
@@ -10782,6 +11523,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10806,9 +11550,12 @@
     <m/>
     <s v="R0.6a"/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.4.2"/>
     <s v="Trascrizione della sentenza di adozione di minore in casi particolari emessa dal Tribunale dei minori"/>
     <x v="0"/>
@@ -10830,9 +11577,12 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="1.3.4.5"/>
     <s v="Trascrizione della sentenza di revoca della adozione di maggiorenne "/>
     <x v="0"/>
@@ -10852,6 +11602,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
     <m/>
     <m/>
   </r>
@@ -10872,6 +11625,9 @@
     <m/>
     <m/>
     <s v="R0.5"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -10902,6 +11658,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10926,6 +11685,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10950,6 +11712,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10974,6 +11739,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -10998,6 +11766,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11022,6 +11793,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11046,6 +11820,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11070,6 +11847,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11094,6 +11874,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11118,6 +11901,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11142,6 +11928,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11166,6 +11955,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11181,6 +11973,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11214,6 +12009,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11238,6 +12036,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11262,9 +12063,12 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="3.3.5.0.0.3"/>
     <s v="Trascrizione di matrimonio in imminente pericolo di vita durante un viaggio in aereo o nave"/>
     <x v="3"/>
@@ -11285,6 +12089,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
     <m/>
   </r>
   <r>
@@ -11310,6 +12117,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11334,6 +12144,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11358,9 +12171,12 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <n v="0"/>
+    <n v="1"/>
     <s v="3.4.4.0.0.0"/>
     <s v="Accordo di modifica delle condizioni di separazione o divorzio"/>
     <x v="3"/>
@@ -11382,6 +12198,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <s v="Post R0.7"/>
   </r>
   <r>
     <n v="1"/>
@@ -11406,6 +12225,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11430,6 +12252,9 @@
     <s v="R0.6a"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="0"/>
@@ -11454,6 +12279,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11478,6 +12306,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11502,6 +12333,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11526,6 +12360,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11550,6 +12387,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11565,6 +12405,9 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11598,6 +12441,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11622,11 +12468,14 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
     <s v="4.3.3.0.0.0"/>
-    <s v="Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte del Consolato/Ambasciata"/>
+    <s v="Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte dell'interessato"/>
     <x v="4"/>
     <x v="2"/>
     <s v="Trascr_UnCiv_003"/>
@@ -11646,11 +12495,14 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
     <s v="4.3.4.0.0.0"/>
-    <s v="Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte dell'interessato"/>
+    <s v="Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte del Consolato/Ambasciata"/>
     <x v="4"/>
     <x v="2"/>
     <s v="Trascr_UnCiv_004"/>
@@ -11670,6 +12522,9 @@
     <m/>
     <m/>
     <s v="R0.7"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11694,6 +12549,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11711,6 +12569,9 @@
     <x v="0"/>
     <m/>
     <s v="R0.5"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11742,6 +12603,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11766,6 +12630,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11790,6 +12657,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11814,6 +12684,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11838,6 +12711,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11862,6 +12738,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11877,6 +12756,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11910,6 +12792,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11934,6 +12819,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11958,6 +12846,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -11982,6 +12873,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -12006,6 +12900,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -12021,6 +12918,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -12045,6 +12945,9 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -12078,6 +12981,9 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="1"/>
@@ -12102,14 +13008,17 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5806E91-740A-4F94-A1C0-76392BC8F484}" name="Tabella pivot4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1">
-  <location ref="A3:S24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA701D75-0330-41D5-8EDF-A50F221AC4CD}" name="Tabella pivot4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1">
+  <location ref="A3:V24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -12168,6 +13077,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -12250,7 +13162,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="18">
+  <colItems count="21">
     <i>
       <x/>
     </i>
@@ -12305,8 +13217,17 @@
     <i i="17">
       <x v="17"/>
     </i>
+    <i i="18">
+      <x v="18"/>
+    </i>
+    <i i="19">
+      <x v="19"/>
+    </i>
+    <i i="20">
+      <x v="20"/>
+    </i>
   </colItems>
-  <dataFields count="18">
+  <dataFields count="21">
     <dataField name="R0.1 (DTD 32 UC 30-11-2022)" fld="6" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="R0.2 (20 UC 20-12-2022)" fld="7" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="R0.3 (I blocco 23 UC 16-01-2023)" fld="8" subtotal="count" baseField="0" baseItem="0"/>
@@ -12320,35 +13241,38 @@
     <dataField name="R0.6 (3 UC 21-04-2023)" fld="16" subtotal="count" baseField="2" baseItem="0"/>
     <dataField name="R0.6a (25 UC 04-05-2023)" fld="17" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="R0.6a (10 UC 09-05-2023)" fld="18" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="R0.6a_x000a_(40 UC 11-05-2023)" fld="19" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="R0.6a_x000a_(1 UC 12-05-2023)" fld="20" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="R0.6a (40 UC 11-05-2023)" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="R0.6a (1 UC 12-05-2023)" fld="20" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="R0.7 (19 UC 26-05-2023)" fld="21" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Post R0.7 (7 UC 8-06-2023)" fld="22" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Post R0.7 (2 UC 9-06-2023)" fld="23" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Post R0.7 (2 UC 15-06-2023)" fld="24" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="UC Rilasciati  " fld="0" baseField="0" baseItem="0"/>
     <dataField name="Totale complessivo UC" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="46">
-    <format dxfId="124">
+  <formats count="50">
+    <format dxfId="132">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="130">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="129">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="128">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="127">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="126">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12357,7 +13281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12366,7 +13290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12375,7 +13299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12384,41 +13308,41 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="119">
       <pivotArea field="3" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="118">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1">
             <x v="0"/>
@@ -12426,12 +13350,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="117">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="0"/>
@@ -12443,12 +13367,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="116">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1">
             <x v="1"/>
@@ -12456,12 +13380,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="115">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="1"/>
@@ -12475,12 +13399,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="114">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1">
             <x v="2"/>
@@ -12488,12 +13412,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="113">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="2"/>
@@ -12506,12 +13430,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="112">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1">
             <x v="3"/>
@@ -12519,12 +13443,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="111">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="3"/>
@@ -12537,12 +13461,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="110">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1">
             <x v="4"/>
@@ -12550,12 +13474,12 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="109">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="4"/>
@@ -12568,11 +13492,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="108">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1">
             <x v="0"/>
@@ -12580,11 +13504,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="107">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="0"/>
@@ -12596,11 +13520,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="106">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1">
             <x v="1"/>
@@ -12608,11 +13532,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="105">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="1"/>
@@ -12626,11 +13550,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="104">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1">
             <x v="2"/>
@@ -12638,11 +13562,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="103">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="2"/>
@@ -12655,11 +13579,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="102">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1">
             <x v="3"/>
@@ -12667,11 +13591,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="101">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="3"/>
@@ -12684,11 +13608,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="100">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1">
             <x v="4"/>
@@ -12696,11 +13620,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="99">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="4"/>
@@ -12713,28 +13637,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="97">
       <pivotArea field="3" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="16"/>
+            <x v="19"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="96">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="17">
@@ -12753,16 +13677,16 @@
             <x v="12"/>
             <x v="13"/>
             <x v="14"/>
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="94">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="17">
@@ -12781,16 +13705,16 @@
             <x v="12"/>
             <x v="13"/>
             <x v="14"/>
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="92">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="17">
@@ -12809,13 +13733,13 @@
             <x v="12"/>
             <x v="13"/>
             <x v="14"/>
-            <x v="16"/>
-            <x v="17"/>
+            <x v="19"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="15">
@@ -12838,7 +13762,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12847,7 +13771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12856,11 +13780,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="18"/>
           </reference>
         </references>
       </pivotArea>
@@ -13175,26 +14135,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F12ABCF-AF86-4556-9977-B2BCE0B90CFD}">
-  <dimension ref="A3:S28"/>
+  <dimension ref="A3:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="33.7109375" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="44" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="44" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="161" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="162" max="177" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="16" bestFit="1" customWidth="1"/>
@@ -13208,7 +14172,7 @@
     <col min="263" max="263" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" s="82" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="82" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
@@ -13252,22 +14216,31 @@
         <v>13</v>
       </c>
       <c r="O3" s="85" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="P3" s="85" t="s">
-        <v>1099</v>
+        <v>1126</v>
       </c>
       <c r="Q3" s="85" t="s">
-        <v>1123</v>
-      </c>
-      <c r="R3" s="83" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R3" s="85" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S3" s="85" t="s">
+        <v>1138</v>
+      </c>
+      <c r="T3" s="85" t="s">
+        <v>1143</v>
+      </c>
+      <c r="U3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="V3" s="84" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -13309,14 +14282,17 @@
       <c r="Q4" s="87">
         <v>7</v>
       </c>
-      <c r="R4" s="90">
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="90">
         <v>40</v>
       </c>
-      <c r="S4" s="89">
+      <c r="V4" s="89">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -13352,14 +14328,17 @@
       </c>
       <c r="P5" s="87"/>
       <c r="Q5" s="87"/>
-      <c r="R5" s="90">
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="90">
         <v>16</v>
       </c>
-      <c r="S5" s="89">
+      <c r="V5" s="89">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -13391,14 +14370,17 @@
       <c r="Q6" s="87">
         <v>7</v>
       </c>
-      <c r="R6" s="90">
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="90">
         <v>24</v>
       </c>
-      <c r="S6" s="89">
+      <c r="V6" s="89">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13428,14 +14410,21 @@
       <c r="Q7" s="87">
         <v>1</v>
       </c>
-      <c r="R7" s="90">
-        <v>17</v>
-      </c>
-      <c r="S7" s="89">
+      <c r="R7" s="87"/>
+      <c r="S7" s="87">
+        <v>1</v>
+      </c>
+      <c r="T7" s="87">
+        <v>1</v>
+      </c>
+      <c r="U7" s="90">
+        <v>19</v>
+      </c>
+      <c r="V7" s="89">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -13461,14 +14450,17 @@
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="87"/>
-      <c r="R8" s="90">
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="90">
         <v>7</v>
       </c>
-      <c r="S8" s="89">
+      <c r="V8" s="89">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -13490,14 +14482,17 @@
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="87"/>
-      <c r="R9" s="90">
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="90">
         <v>1</v>
       </c>
-      <c r="S9" s="89">
+      <c r="V9" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -13521,14 +14516,19 @@
       </c>
       <c r="P10" s="87"/>
       <c r="Q10" s="87"/>
-      <c r="R10" s="90">
-        <v>5</v>
-      </c>
-      <c r="S10" s="89">
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87">
+        <v>1</v>
+      </c>
+      <c r="U10" s="90">
+        <v>6</v>
+      </c>
+      <c r="V10" s="89">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -13554,14 +14554,19 @@
       <c r="Q11" s="87">
         <v>1</v>
       </c>
-      <c r="R11" s="90">
-        <v>4</v>
-      </c>
-      <c r="S11" s="89">
+      <c r="R11" s="87"/>
+      <c r="S11" s="87">
+        <v>1</v>
+      </c>
+      <c r="T11" s="87"/>
+      <c r="U11" s="90">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V11" s="89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -13591,14 +14596,17 @@
       <c r="O12" s="87"/>
       <c r="P12" s="87"/>
       <c r="Q12" s="87"/>
-      <c r="R12" s="90">
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="90">
         <v>10</v>
       </c>
-      <c r="S12" s="89">
+      <c r="V12" s="89">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -13622,14 +14630,17 @@
       <c r="O13" s="87"/>
       <c r="P13" s="87"/>
       <c r="Q13" s="87"/>
-      <c r="R13" s="90">
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="90">
         <v>4</v>
       </c>
-      <c r="S13" s="89">
+      <c r="V13" s="89">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -13653,14 +14664,17 @@
       <c r="O14" s="87"/>
       <c r="P14" s="87"/>
       <c r="Q14" s="87"/>
-      <c r="R14" s="90">
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="90">
         <v>3</v>
       </c>
-      <c r="S14" s="89">
+      <c r="V14" s="89">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -13684,14 +14698,17 @@
       <c r="O15" s="87"/>
       <c r="P15" s="87"/>
       <c r="Q15" s="87"/>
-      <c r="R15" s="90">
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="90">
         <v>3</v>
       </c>
-      <c r="S15" s="89">
+      <c r="V15" s="89">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -13741,14 +14758,23 @@
       <c r="Q16" s="87">
         <v>9</v>
       </c>
-      <c r="R16" s="90">
-        <v>153</v>
-      </c>
-      <c r="S16" s="89">
+      <c r="R16" s="87">
+        <v>7</v>
+      </c>
+      <c r="S16" s="87">
+        <v>1</v>
+      </c>
+      <c r="T16" s="87">
+        <v>1</v>
+      </c>
+      <c r="U16" s="90">
+        <v>162</v>
+      </c>
+      <c r="V16" s="89">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -13790,14 +14816,17 @@
       <c r="Q17" s="87">
         <v>8</v>
       </c>
-      <c r="R17" s="90">
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="90">
         <v>117</v>
       </c>
-      <c r="S17" s="89">
+      <c r="V17" s="89">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -13829,14 +14858,17 @@
       </c>
       <c r="P18" s="87"/>
       <c r="Q18" s="87"/>
-      <c r="R18" s="90">
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="90">
         <v>20</v>
       </c>
-      <c r="S18" s="89">
+      <c r="V18" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -13876,14 +14908,23 @@
       <c r="Q19" s="87">
         <v>1</v>
       </c>
-      <c r="R19" s="90">
-        <v>16</v>
-      </c>
-      <c r="S19" s="89">
+      <c r="R19" s="87">
+        <v>7</v>
+      </c>
+      <c r="S19" s="87">
+        <v>1</v>
+      </c>
+      <c r="T19" s="87">
+        <v>1</v>
+      </c>
+      <c r="U19" s="90">
+        <v>25</v>
+      </c>
+      <c r="V19" s="89">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -13915,14 +14956,17 @@
       <c r="Q20" s="87">
         <v>2</v>
       </c>
-      <c r="R20" s="90">
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="90">
         <v>14</v>
       </c>
-      <c r="S20" s="89">
+      <c r="V20" s="89">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -13950,14 +14994,17 @@
       <c r="O21" s="87"/>
       <c r="P21" s="87"/>
       <c r="Q21" s="87"/>
-      <c r="R21" s="90">
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="90">
         <v>5</v>
       </c>
-      <c r="S21" s="89">
+      <c r="V21" s="89">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -13983,14 +15030,17 @@
       <c r="O22" s="87"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="87"/>
-      <c r="R22" s="90">
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="90">
         <v>5</v>
       </c>
-      <c r="S22" s="89">
+      <c r="V22" s="89">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -14014,14 +15064,17 @@
       <c r="Q23" s="87">
         <v>2</v>
       </c>
-      <c r="R23" s="90">
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="90">
         <v>4</v>
       </c>
-      <c r="S23" s="89">
+      <c r="V23" s="89">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -14073,25 +15126,29 @@
       <c r="Q24" s="87">
         <v>19</v>
       </c>
-      <c r="R24" s="91">
-        <v>234</v>
-      </c>
-      <c r="S24" s="88">
+      <c r="R24" s="87">
+        <v>7</v>
+      </c>
+      <c r="S24" s="87">
+        <v>2</v>
+      </c>
+      <c r="T24" s="87">
+        <v>2</v>
+      </c>
+      <c r="U24" s="91">
+        <v>245</v>
+      </c>
+      <c r="V24" s="88">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R26" s="74" t="s">
-        <v>1124</v>
-      </c>
-      <c r="S26" s="74">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U26" s="74" t="s">
+        <v>1120</v>
+      </c>
+      <c r="V26" s="74">
         <f>+GETPIVOTDATA("Totale complessivo UC",$A$3)-GETPIVOTDATA("UC Rilasciati  ",$A$3)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R28" s="95" t="s">
-        <v>1125</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -14155,7 +15212,7 @@
         <v>1082</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -14323,7 +15380,7 @@
         <v>921</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -14352,7 +15409,7 @@
         <v>921</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -14551,14 +15608,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81462837-4B03-4AE6-9D15-23C331DE4000}">
   <dimension ref="A1:ES259"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T282" sqref="T282"/>
+    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="73" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="73" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.5703125" style="64" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="58" bestFit="1" customWidth="1"/>
@@ -14566,8 +15623,9 @@
     <col min="6" max="6" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="57" customWidth="1"/>
     <col min="8" max="21" width="13.140625" style="58" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" style="58" customWidth="1"/>
-    <col min="23" max="149" width="23.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="58" customWidth="1"/>
+    <col min="23" max="25" width="20.42578125" style="58" customWidth="1"/>
+    <col min="26" max="149" width="23.5703125" style="58" bestFit="1" customWidth="1"/>
     <col min="150" max="16384" width="52.42578125" style="57"/>
   </cols>
   <sheetData>
@@ -14633,15 +15691,20 @@
         <v>1095</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="V1" s="65" t="s">
-        <v>1122</v>
-      </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+        <v>1097</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Y1" s="65" t="s">
+        <v>1145</v>
+      </c>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
       <c r="AC1" s="57"/>
@@ -14768,7 +15831,7 @@
     </row>
     <row r="2" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <f>COUNTA(G2:V2)</f>
+        <f>COUNTA(G2:Y2)</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -14804,10 +15867,13 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A66" si="0">COUNTA(G3:V3)</f>
+        <f t="shared" ref="A3:A66" si="0">COUNTA(G3:Y3)</f>
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14843,6 +15909,9 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -14882,6 +15951,9 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -14921,9 +15993,9 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="60"/>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -15087,6 +16159,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -15126,6 +16201,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -15165,6 +16243,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -15204,6 +16285,9 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -15243,9 +16327,9 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="60"/>
       <c r="AA10" s="60"/>
       <c r="AB10" s="60"/>
@@ -15409,6 +16493,9 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -15448,9 +16535,9 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="60"/>
       <c r="AA12" s="60"/>
       <c r="AB12" s="60"/>
@@ -15614,9 +16701,9 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
       <c r="Z13" s="60"/>
       <c r="AA13" s="60"/>
       <c r="AB13" s="60"/>
@@ -15780,6 +16867,9 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:149" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -15819,9 +16909,9 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="58"/>
       <c r="AA15" s="58"/>
       <c r="AB15" s="58"/>
@@ -15985,6 +17075,9 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -16024,9 +17117,9 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="60"/>
       <c r="AA17" s="60"/>
       <c r="AB17" s="60"/>
@@ -16190,6 +17283,9 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -16229,6 +17325,9 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -16268,6 +17367,9 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -16307,6 +17409,9 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:149" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -16346,9 +17451,9 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="58"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="58"/>
@@ -16512,6 +17617,9 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -16551,9 +17659,9 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
       <c r="Z24" s="58"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="58"/>
@@ -16717,6 +17825,9 @@
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -16756,6 +17867,9 @@
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -16795,6 +17909,9 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:149" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -16834,9 +17951,9 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="58"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="58"/>
@@ -17000,6 +18117,9 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -17039,6 +18159,9 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -17078,6 +18201,9 @@
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -17117,6 +18243,9 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -17156,6 +18285,9 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:149" s="62" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -17195,9 +18327,9 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="60"/>
       <c r="AA34" s="60"/>
       <c r="AB34" s="60"/>
@@ -17361,6 +18493,9 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -17400,6 +18535,9 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -17439,9 +18577,9 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="58"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
       <c r="Z37" s="58"/>
       <c r="AA37" s="58"/>
       <c r="AB37" s="58"/>
@@ -17605,6 +18743,9 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -17644,6 +18785,9 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -17683,6 +18827,9 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -17722,6 +18869,9 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -17761,11 +18911,14 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>176</v>
@@ -17798,6 +18951,11 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
+      <c r="W43" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
     </row>
     <row r="44" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -17837,6 +18995,9 @@
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -17876,6 +19037,9 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -17915,9 +19079,9 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="60"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
       <c r="Z46" s="60"/>
       <c r="AA46" s="60"/>
       <c r="AB46" s="60"/>
@@ -18081,9 +19245,9 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
       <c r="Z47" s="60"/>
       <c r="AA47" s="60"/>
       <c r="AB47" s="60"/>
@@ -18247,9 +19411,9 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
       <c r="Z48" s="60"/>
       <c r="AA48" s="60"/>
       <c r="AB48" s="60"/>
@@ -18413,9 +19577,9 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="60"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
       <c r="Z49" s="60"/>
       <c r="AA49" s="60"/>
       <c r="AB49" s="60"/>
@@ -18579,9 +19743,9 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="60"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="60"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
       <c r="Z50" s="60"/>
       <c r="AA50" s="60"/>
       <c r="AB50" s="60"/>
@@ -18745,9 +19909,9 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="60"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="60"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
       <c r="Z51" s="60"/>
       <c r="AA51" s="60"/>
       <c r="AB51" s="60"/>
@@ -18911,9 +20075,9 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
-      <c r="Y52" s="58"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
       <c r="Z52" s="58"/>
       <c r="AA52" s="58"/>
       <c r="AB52" s="58"/>
@@ -19077,6 +20241,9 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -19114,6 +20281,9 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -19153,6 +20323,9 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
     </row>
     <row r="56" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -19192,9 +20365,9 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="60"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
       <c r="Z56" s="60"/>
       <c r="AA56" s="60"/>
       <c r="AB56" s="60"/>
@@ -19358,6 +20531,9 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
     </row>
     <row r="58" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -19397,6 +20573,9 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
     </row>
     <row r="59" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -19436,6 +20615,9 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
     </row>
     <row r="60" spans="1:149" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -19475,9 +20657,9 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="60"/>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="60"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
       <c r="Z60" s="60"/>
       <c r="AA60" s="60"/>
       <c r="AB60" s="60"/>
@@ -19641,6 +20823,9 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
     </row>
     <row r="62" spans="1:149" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -19680,9 +20865,9 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="60"/>
-      <c r="Y62" s="60"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
       <c r="AB62" s="60"/>
@@ -19846,6 +21031,9 @@
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
     </row>
     <row r="64" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -19885,6 +21073,9 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
     </row>
     <row r="65" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -19924,6 +21115,9 @@
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
     </row>
     <row r="66" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -19963,9 +21157,9 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
       <c r="Z66" s="60"/>
       <c r="AA66" s="60"/>
       <c r="AB66" s="60"/>
@@ -20093,7 +21287,7 @@
     </row>
     <row r="67" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" ref="A67:A130" si="1">COUNTA(G67:V67)</f>
+        <f t="shared" ref="A67:A130" si="1">COUNTA(G67:Y67)</f>
         <v>1</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -20129,9 +21323,9 @@
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="58"/>
-      <c r="X67" s="58"/>
-      <c r="Y67" s="58"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
       <c r="Z67" s="58"/>
       <c r="AA67" s="58"/>
       <c r="AB67" s="58"/>
@@ -20295,9 +21489,9 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="60"/>
-      <c r="X68" s="60"/>
-      <c r="Y68" s="60"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
       <c r="Z68" s="60"/>
       <c r="AA68" s="60"/>
       <c r="AB68" s="60"/>
@@ -20461,9 +21655,9 @@
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="58"/>
-      <c r="X69" s="58"/>
-      <c r="Y69" s="58"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
       <c r="Z69" s="58"/>
       <c r="AA69" s="58"/>
       <c r="AB69" s="58"/>
@@ -20627,9 +21821,9 @@
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="58"/>
-      <c r="X70" s="58"/>
-      <c r="Y70" s="58"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
       <c r="Z70" s="58"/>
       <c r="AA70" s="58"/>
       <c r="AB70" s="58"/>
@@ -20793,9 +21987,9 @@
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="58"/>
-      <c r="X71" s="58"/>
-      <c r="Y71" s="58"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
       <c r="Z71" s="58"/>
       <c r="AA71" s="58"/>
       <c r="AB71" s="58"/>
@@ -20959,9 +22153,9 @@
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="58"/>
-      <c r="X72" s="58"/>
-      <c r="Y72" s="58"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
       <c r="Z72" s="58"/>
       <c r="AA72" s="58"/>
       <c r="AB72" s="58"/>
@@ -21125,9 +22319,9 @@
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="58"/>
-      <c r="X73" s="58"/>
-      <c r="Y73" s="58"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
       <c r="Z73" s="58"/>
       <c r="AA73" s="58"/>
       <c r="AB73" s="58"/>
@@ -21291,9 +22485,9 @@
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="58"/>
-      <c r="X74" s="58"/>
-      <c r="Y74" s="58"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
       <c r="Z74" s="58"/>
       <c r="AA74" s="58"/>
       <c r="AB74" s="58"/>
@@ -21457,9 +22651,9 @@
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-      <c r="W75" s="58"/>
-      <c r="X75" s="58"/>
-      <c r="Y75" s="58"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
       <c r="Z75" s="58"/>
       <c r="AA75" s="58"/>
       <c r="AB75" s="58"/>
@@ -21623,6 +22817,9 @@
       </c>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
     </row>
     <row r="77" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
@@ -21660,6 +22857,9 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
     </row>
     <row r="78" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -21699,6 +22899,9 @@
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
     </row>
     <row r="79" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -21738,6 +22941,9 @@
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
     </row>
     <row r="80" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -21777,6 +22983,9 @@
       </c>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
     </row>
     <row r="81" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -21816,6 +23025,9 @@
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
     </row>
     <row r="82" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -21855,6 +23067,9 @@
       </c>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
     </row>
     <row r="83" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
@@ -21892,6 +23107,9 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
     </row>
     <row r="84" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -21929,6 +23147,9 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
     </row>
     <row r="85" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -21966,8 +23187,11 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
     </row>
     <row r="86" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -22005,8 +23229,11 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
     </row>
     <row r="87" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -22044,8 +23271,11 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
     </row>
     <row r="88" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -22085,6 +23315,9 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
     </row>
     <row r="89" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -22122,11 +23355,11 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="W89" s="58"/>
-      <c r="X89" s="58"/>
-      <c r="Y89" s="58"/>
+        <v>1099</v>
+      </c>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
       <c r="Z89" s="58"/>
       <c r="AA89" s="58"/>
       <c r="AB89" s="58"/>
@@ -22290,6 +23523,9 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
     </row>
     <row r="91" spans="1:149" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -22327,8 +23563,11 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
     </row>
     <row r="92" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -22368,9 +23607,9 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
-      <c r="W92" s="60"/>
-      <c r="X92" s="60"/>
-      <c r="Y92" s="60"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
       <c r="Z92" s="60"/>
       <c r="AA92" s="60"/>
       <c r="AB92" s="60"/>
@@ -22534,6 +23773,9 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
     </row>
     <row r="94" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -22571,8 +23813,11 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
     </row>
     <row r="95" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
@@ -22610,8 +23855,11 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
     </row>
     <row r="96" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -22651,9 +23899,9 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="60"/>
-      <c r="X96" s="60"/>
-      <c r="Y96" s="60"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
       <c r="Z96" s="60"/>
       <c r="AA96" s="60"/>
       <c r="AB96" s="60"/>
@@ -22817,6 +24065,9 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
     </row>
     <row r="98" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
@@ -22856,6 +24107,9 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
     </row>
     <row r="99" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
@@ -22895,9 +24149,9 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="60"/>
-      <c r="X99" s="60"/>
-      <c r="Y99" s="60"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
       <c r="Z99" s="60"/>
       <c r="AA99" s="60"/>
       <c r="AB99" s="60"/>
@@ -23061,6 +24315,9 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
     </row>
     <row r="101" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
@@ -23100,9 +24357,9 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="60"/>
-      <c r="X101" s="60"/>
-      <c r="Y101" s="60"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
       <c r="Z101" s="60"/>
       <c r="AA101" s="60"/>
       <c r="AB101" s="60"/>
@@ -23266,6 +24523,9 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
     </row>
     <row r="103" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
@@ -23305,6 +24565,9 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
     </row>
     <row r="104" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
@@ -23344,6 +24607,9 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
     </row>
     <row r="105" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
@@ -23383,6 +24649,9 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
     </row>
     <row r="106" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
@@ -23422,6 +24691,9 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
     </row>
     <row r="107" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
@@ -23461,6 +24733,9 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
     </row>
     <row r="108" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
@@ -23500,6 +24775,9 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
     </row>
     <row r="109" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
@@ -23539,6 +24817,9 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
     </row>
     <row r="110" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
@@ -23578,6 +24859,9 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
     </row>
     <row r="111" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
@@ -23617,9 +24901,9 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
-      <c r="W111" s="60"/>
-      <c r="X111" s="60"/>
-      <c r="Y111" s="60"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
       <c r="Z111" s="60"/>
       <c r="AA111" s="60"/>
       <c r="AB111" s="60"/>
@@ -23783,9 +25067,9 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
-      <c r="W112" s="60"/>
-      <c r="X112" s="60"/>
-      <c r="Y112" s="60"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
       <c r="Z112" s="60"/>
       <c r="AA112" s="60"/>
       <c r="AB112" s="60"/>
@@ -23949,6 +25233,9 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
     </row>
     <row r="114" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
@@ -23988,6 +25275,9 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
     </row>
     <row r="115" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
@@ -24027,6 +25317,9 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
     </row>
     <row r="116" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
@@ -24066,9 +25359,9 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
-      <c r="W116" s="58"/>
-      <c r="X116" s="58"/>
-      <c r="Y116" s="58"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
       <c r="Z116" s="58"/>
       <c r="AA116" s="58"/>
       <c r="AB116" s="58"/>
@@ -24232,9 +25525,9 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
-      <c r="W117" s="60"/>
-      <c r="X117" s="60"/>
-      <c r="Y117" s="60"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
       <c r="Z117" s="60"/>
       <c r="AA117" s="60"/>
       <c r="AB117" s="60"/>
@@ -24398,6 +25691,9 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
     </row>
     <row r="119" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
@@ -24437,6 +25733,9 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
     </row>
     <row r="120" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
@@ -24476,6 +25775,9 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
     </row>
     <row r="121" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
@@ -24515,6 +25817,9 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
     </row>
     <row r="122" spans="1:149" s="63" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
@@ -24554,9 +25859,9 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="60"/>
-      <c r="X122" s="60"/>
-      <c r="Y122" s="60"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
       <c r="Z122" s="60"/>
       <c r="AA122" s="60"/>
       <c r="AB122" s="60"/>
@@ -24720,9 +26025,9 @@
       </c>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-      <c r="W123" s="59"/>
-      <c r="X123" s="59"/>
-      <c r="Y123" s="59"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
       <c r="Z123" s="59"/>
       <c r="AA123" s="59"/>
       <c r="AB123" s="59"/>
@@ -24886,9 +26191,9 @@
       </c>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
-      <c r="W124" s="59"/>
-      <c r="X124" s="59"/>
-      <c r="Y124" s="59"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
       <c r="Z124" s="59"/>
       <c r="AA124" s="59"/>
       <c r="AB124" s="59"/>
@@ -25052,9 +26357,9 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
-      <c r="W125" s="61"/>
-      <c r="X125" s="61"/>
-      <c r="Y125" s="61"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
       <c r="Z125" s="61"/>
       <c r="AA125" s="61"/>
       <c r="AB125" s="61"/>
@@ -25218,9 +26523,9 @@
       </c>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
-      <c r="W126" s="59"/>
-      <c r="X126" s="59"/>
-      <c r="Y126" s="59"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
       <c r="Z126" s="59"/>
       <c r="AA126" s="59"/>
       <c r="AB126" s="59"/>
@@ -25384,6 +26689,9 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
     </row>
     <row r="128" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
@@ -25423,6 +26731,9 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
     </row>
     <row r="129" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
@@ -25462,6 +26773,9 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
     </row>
     <row r="130" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
@@ -25501,10 +26815,13 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
     </row>
     <row r="131" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <f t="shared" ref="A131:A194" si="2">COUNTA(G131:V131)</f>
+        <f t="shared" ref="A131:A194" si="2">COUNTA(G131:Y131)</f>
         <v>1</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -25540,6 +26857,9 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
     </row>
     <row r="132" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
@@ -25579,9 +26899,9 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
-      <c r="W132" s="61"/>
-      <c r="X132" s="61"/>
-      <c r="Y132" s="61"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
       <c r="Z132" s="61"/>
       <c r="AA132" s="61"/>
       <c r="AB132" s="61"/>
@@ -25745,6 +27065,9 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
     </row>
     <row r="134" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
@@ -25784,6 +27107,9 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
     </row>
     <row r="135" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
@@ -25823,9 +27149,9 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-      <c r="W135" s="60"/>
-      <c r="X135" s="60"/>
-      <c r="Y135" s="60"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
       <c r="AB135" s="60"/>
@@ -25989,6 +27315,9 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
     </row>
     <row r="137" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
@@ -26028,9 +27357,9 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="W137" s="60"/>
-      <c r="X137" s="60"/>
-      <c r="Y137" s="60"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
       <c r="Z137" s="60"/>
       <c r="AA137" s="60"/>
       <c r="AB137" s="60"/>
@@ -26194,9 +27523,9 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
-      <c r="W138" s="60"/>
-      <c r="X138" s="60"/>
-      <c r="Y138" s="60"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
       <c r="Z138" s="60"/>
       <c r="AA138" s="60"/>
       <c r="AB138" s="60"/>
@@ -26360,6 +27689,9 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
     </row>
     <row r="140" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
@@ -26399,6 +27731,9 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
     </row>
     <row r="141" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
@@ -26438,6 +27773,9 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
     </row>
     <row r="142" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
@@ -26477,6 +27815,9 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
     </row>
     <row r="143" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
@@ -26516,6 +27857,9 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
     </row>
     <row r="144" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
@@ -26555,6 +27899,9 @@
       </c>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
     </row>
     <row r="145" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
@@ -26594,13 +27941,16 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
     </row>
     <row r="146" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B146" s="86" t="s">
+      <c r="B146" s="6" t="s">
         <v>475</v>
       </c>
       <c r="C146" s="21" t="s">
@@ -26631,15 +27981,18 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
     </row>
     <row r="147" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B147" s="86" t="s">
+      <c r="B147" s="6" t="s">
         <v>478</v>
       </c>
       <c r="C147" s="21" t="s">
@@ -26670,8 +28023,11 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
     </row>
     <row r="148" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
@@ -26711,9 +28067,9 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" s="60"/>
-      <c r="X148" s="60"/>
-      <c r="Y148" s="60"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
       <c r="Z148" s="60"/>
       <c r="AA148" s="60"/>
       <c r="AB148" s="60"/>
@@ -26844,7 +28200,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B149" s="86" t="s">
+      <c r="B149" s="6" t="s">
         <v>484</v>
       </c>
       <c r="C149" s="21" t="s">
@@ -26875,15 +28231,18 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
     </row>
     <row r="150" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B150" s="86" t="s">
+      <c r="B150" s="6" t="s">
         <v>487</v>
       </c>
       <c r="C150" s="21" t="s">
@@ -26914,8 +28273,11 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
     </row>
     <row r="151" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
@@ -26955,6 +28317,9 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
     </row>
     <row r="152" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
@@ -26994,6 +28359,9 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
     </row>
     <row r="153" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
@@ -27033,6 +28401,9 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
     </row>
     <row r="154" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
@@ -27072,6 +28443,9 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
     </row>
     <row r="155" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
@@ -27111,6 +28485,9 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
     </row>
     <row r="156" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
@@ -27150,6 +28527,9 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
     </row>
     <row r="157" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
@@ -27189,6 +28569,9 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
     </row>
     <row r="158" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
@@ -27228,6 +28611,9 @@
       </c>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
     </row>
     <row r="159" spans="1:149" ht="51" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
@@ -27267,6 +28653,9 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
     </row>
     <row r="160" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
@@ -27304,10 +28693,13 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
       <c r="V160" s="4" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
+    </row>
+    <row r="161" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27345,8 +28737,11 @@
       </c>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
-    </row>
-    <row r="162" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
+    </row>
+    <row r="162" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27384,8 +28779,11 @@
       </c>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
-    </row>
-    <row r="163" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
+    </row>
+    <row r="163" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27423,8 +28821,11 @@
       </c>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
-    </row>
-    <row r="164" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
+    </row>
+    <row r="164" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27462,8 +28863,11 @@
       </c>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
-    </row>
-    <row r="165" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+    </row>
+    <row r="165" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27501,8 +28905,11 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
-    </row>
-    <row r="166" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+    </row>
+    <row r="166" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27540,8 +28947,11 @@
       </c>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
-    </row>
-    <row r="167" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+    </row>
+    <row r="167" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27550,7 +28960,7 @@
         <v>538</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>25</v>
@@ -27579,8 +28989,11 @@
       </c>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
-    </row>
-    <row r="168" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+    </row>
+    <row r="168" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27618,8 +29031,11 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
-    </row>
-    <row r="169" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
+    </row>
+    <row r="169" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27657,8 +29073,11 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
-    </row>
-    <row r="170" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
+    </row>
+    <row r="170" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27696,8 +29115,11 @@
       </c>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
-    </row>
-    <row r="171" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
+    </row>
+    <row r="171" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27735,8 +29157,11 @@
       </c>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
-    </row>
-    <row r="172" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
+    </row>
+    <row r="172" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27774,8 +29199,11 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
-    </row>
-    <row r="173" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
+    </row>
+    <row r="173" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27813,8 +29241,11 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
-    </row>
-    <row r="174" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+    </row>
+    <row r="174" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27852,8 +29283,11 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
-    </row>
-    <row r="175" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
+    </row>
+    <row r="175" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27891,8 +29325,11 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
-    </row>
-    <row r="176" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
+    </row>
+    <row r="176" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -27930,6 +29367,9 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
     </row>
     <row r="177" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
@@ -27969,6 +29409,9 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
     </row>
     <row r="178" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
@@ -28008,6 +29451,9 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
     </row>
     <row r="179" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
@@ -28047,9 +29493,9 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
-      <c r="W179" s="58"/>
-      <c r="X179" s="58"/>
-      <c r="Y179" s="58"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
       <c r="Z179" s="58"/>
       <c r="AA179" s="58"/>
       <c r="AB179" s="58"/>
@@ -28213,6 +29659,9 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
     </row>
     <row r="181" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
@@ -28252,6 +29701,9 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
     </row>
     <row r="182" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
@@ -28291,9 +29743,9 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-      <c r="W182" s="60"/>
-      <c r="X182" s="60"/>
-      <c r="Y182" s="60"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
       <c r="Z182" s="60"/>
       <c r="AA182" s="60"/>
       <c r="AB182" s="60"/>
@@ -28457,6 +29909,9 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
     </row>
     <row r="184" spans="1:149" s="62" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
@@ -28496,9 +29951,9 @@
       </c>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
-      <c r="W184" s="58"/>
-      <c r="X184" s="58"/>
-      <c r="Y184" s="58"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
       <c r="Z184" s="58"/>
       <c r="AA184" s="58"/>
       <c r="AB184" s="58"/>
@@ -28662,6 +30117,9 @@
       </c>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
     </row>
     <row r="186" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
@@ -28701,6 +30159,9 @@
       </c>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
     </row>
     <row r="187" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
@@ -28740,6 +30201,9 @@
       </c>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
     </row>
     <row r="188" spans="1:149" s="62" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
@@ -28779,9 +30243,9 @@
       </c>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
-      <c r="W188" s="58"/>
-      <c r="X188" s="58"/>
-      <c r="Y188" s="58"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
       <c r="Z188" s="58"/>
       <c r="AA188" s="58"/>
       <c r="AB188" s="58"/>
@@ -28943,11 +30407,11 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="W189" s="58"/>
-      <c r="X189" s="58"/>
-      <c r="Y189" s="58"/>
+        <v>1099</v>
+      </c>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
       <c r="Z189" s="58"/>
       <c r="AA189" s="58"/>
       <c r="AB189" s="58"/>
@@ -29111,6 +30575,9 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
     </row>
     <row r="191" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
@@ -29150,6 +30617,9 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
     </row>
     <row r="192" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
@@ -29189,6 +30659,9 @@
       </c>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
     </row>
     <row r="193" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
@@ -29226,8 +30699,11 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
     </row>
     <row r="194" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
@@ -29267,10 +30743,13 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
     </row>
     <row r="195" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <f t="shared" ref="A195:A258" si="3">COUNTA(G195:V195)</f>
+        <f t="shared" ref="A195:A258" si="3">COUNTA(G195:Y195)</f>
         <v>1</v>
       </c>
       <c r="B195" s="12" t="s">
@@ -29304,15 +30783,18 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
     </row>
     <row r="196" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="86" t="s">
         <v>624</v>
       </c>
       <c r="C196" s="11" t="s">
@@ -29343,13 +30825,18 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Y196" s="4"/>
     </row>
     <row r="197" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B197" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="86" t="s">
         <v>627</v>
       </c>
       <c r="C197" s="11" t="s">
@@ -29380,13 +30867,18 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="4"/>
+      <c r="W197" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
     </row>
     <row r="198" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B198" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="86" t="s">
         <v>630</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -29417,6 +30909,11 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="4"/>
+      <c r="W198" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
     </row>
     <row r="199" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
@@ -29456,9 +30953,9 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
       <c r="V199" s="4"/>
-      <c r="W199" s="60"/>
-      <c r="X199" s="60"/>
-      <c r="Y199" s="60"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
       <c r="Z199" s="60"/>
       <c r="AA199" s="60"/>
       <c r="AB199" s="60"/>
@@ -29620,11 +31117,11 @@
       <c r="T200" s="4"/>
       <c r="U200" s="6"/>
       <c r="V200" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="W200" s="58"/>
-      <c r="X200" s="58"/>
-      <c r="Y200" s="58"/>
+        <v>1099</v>
+      </c>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
       <c r="Z200" s="58"/>
       <c r="AA200" s="58"/>
       <c r="AB200" s="58"/>
@@ -29753,7 +31250,7 @@
     <row r="201" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" s="66" t="s">
         <v>639</v>
@@ -29786,13 +31283,18 @@
       <c r="T201" s="4"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
+      <c r="W201" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="4"/>
     </row>
     <row r="202" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="86" t="s">
         <v>642</v>
       </c>
       <c r="C202" s="77" t="s">
@@ -29823,13 +31325,18 @@
       <c r="T202" s="4"/>
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
+      <c r="W202" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X202" s="4"/>
+      <c r="Y202" s="4"/>
     </row>
     <row r="203" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B203" s="86" t="s">
         <v>645</v>
       </c>
       <c r="C203" s="77" t="s">
@@ -29860,6 +31367,11 @@
       <c r="T203" s="4"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
+      <c r="W203" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
     </row>
     <row r="204" spans="1:149" s="62" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
@@ -29897,9 +31409,9 @@
       <c r="T204" s="4"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
-      <c r="W204" s="58"/>
-      <c r="X204" s="58"/>
-      <c r="Y204" s="58"/>
+      <c r="W204" s="6"/>
+      <c r="X204" s="6"/>
+      <c r="Y204" s="6"/>
       <c r="Z204" s="58"/>
       <c r="AA204" s="58"/>
       <c r="AB204" s="58"/>
@@ -30063,13 +31575,16 @@
         <v>127</v>
       </c>
       <c r="V205" s="6"/>
+      <c r="W205" s="6"/>
+      <c r="X205" s="6"/>
+      <c r="Y205" s="6"/>
     </row>
     <row r="206" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B206" s="86" t="s">
         <v>654</v>
       </c>
       <c r="C206" s="77" t="s">
@@ -30100,13 +31615,18 @@
       <c r="T206" s="4"/>
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
+      <c r="W206" s="6"/>
+      <c r="X206" s="6"/>
+      <c r="Y206" s="6" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="207" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B207" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="86" t="s">
         <v>657</v>
       </c>
       <c r="C207" s="77" t="s">
@@ -30137,6 +31657,11 @@
       <c r="T207" s="4"/>
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
+      <c r="W207" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X207" s="4"/>
+      <c r="Y207" s="4"/>
     </row>
     <row r="208" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
@@ -30176,6 +31701,9 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
     </row>
     <row r="209" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
@@ -30215,9 +31743,9 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
       <c r="V209" s="4"/>
-      <c r="W209" s="60"/>
-      <c r="X209" s="60"/>
-      <c r="Y209" s="60"/>
+      <c r="W209" s="4"/>
+      <c r="X209" s="4"/>
+      <c r="Y209" s="4"/>
       <c r="Z209" s="60"/>
       <c r="AA209" s="60"/>
       <c r="AB209" s="60"/>
@@ -30381,9 +31909,9 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
       <c r="V210" s="4"/>
-      <c r="W210" s="60"/>
-      <c r="X210" s="60"/>
-      <c r="Y210" s="60"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="4"/>
+      <c r="Y210" s="4"/>
       <c r="Z210" s="60"/>
       <c r="AA210" s="60"/>
       <c r="AB210" s="60"/>
@@ -30547,9 +32075,9 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
       <c r="V211" s="4"/>
-      <c r="W211" s="60"/>
-      <c r="X211" s="60"/>
-      <c r="Y211" s="60"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
       <c r="Z211" s="60"/>
       <c r="AA211" s="60"/>
       <c r="AB211" s="60"/>
@@ -30713,9 +32241,9 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
       <c r="V212" s="4"/>
-      <c r="W212" s="60"/>
-      <c r="X212" s="60"/>
-      <c r="Y212" s="60"/>
+      <c r="W212" s="4"/>
+      <c r="X212" s="4"/>
+      <c r="Y212" s="4"/>
       <c r="Z212" s="60"/>
       <c r="AA212" s="60"/>
       <c r="AB212" s="60"/>
@@ -30879,9 +32407,9 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
       <c r="V213" s="4"/>
-      <c r="W213" s="60"/>
-      <c r="X213" s="60"/>
-      <c r="Y213" s="60"/>
+      <c r="W213" s="4"/>
+      <c r="X213" s="4"/>
+      <c r="Y213" s="4"/>
       <c r="Z213" s="60"/>
       <c r="AA213" s="60"/>
       <c r="AB213" s="60"/>
@@ -31045,9 +32573,9 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
       <c r="V214" s="4"/>
-      <c r="W214" s="60"/>
-      <c r="X214" s="60"/>
-      <c r="Y214" s="60"/>
+      <c r="W214" s="4"/>
+      <c r="X214" s="4"/>
+      <c r="Y214" s="4"/>
       <c r="Z214" s="60"/>
       <c r="AA214" s="60"/>
       <c r="AB214" s="60"/>
@@ -31209,6 +32737,9 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
       <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+      <c r="X215" s="4"/>
+      <c r="Y215" s="4"/>
     </row>
     <row r="216" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
@@ -31246,6 +32777,9 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
       <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
     </row>
     <row r="217" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
@@ -31283,6 +32817,9 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
       <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
     </row>
     <row r="218" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
@@ -31320,6 +32857,9 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
       <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
     </row>
     <row r="219" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
@@ -31357,6 +32897,9 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
       <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
     </row>
     <row r="220" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
@@ -31394,6 +32937,9 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
       <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+      <c r="X220" s="4"/>
+      <c r="Y220" s="4"/>
     </row>
     <row r="221" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
@@ -31431,6 +32977,9 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+      <c r="X221" s="4"/>
+      <c r="Y221" s="4"/>
     </row>
     <row r="222" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
@@ -31470,9 +33019,9 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
-      <c r="W222" s="60"/>
-      <c r="X222" s="60"/>
-      <c r="Y222" s="60"/>
+      <c r="W222" s="4"/>
+      <c r="X222" s="4"/>
+      <c r="Y222" s="4"/>
       <c r="Z222" s="60"/>
       <c r="AA222" s="60"/>
       <c r="AB222" s="60"/>
@@ -31636,9 +33185,9 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
       <c r="V223" s="4"/>
-      <c r="W223" s="60"/>
-      <c r="X223" s="60"/>
-      <c r="Y223" s="60"/>
+      <c r="W223" s="4"/>
+      <c r="X223" s="4"/>
+      <c r="Y223" s="4"/>
       <c r="Z223" s="60"/>
       <c r="AA223" s="60"/>
       <c r="AB223" s="60"/>
@@ -31800,15 +33349,18 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
       <c r="V224" s="4" t="s">
-        <v>1101</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="W224" s="4"/>
+      <c r="X224" s="4"/>
+      <c r="Y224" s="4"/>
     </row>
     <row r="225" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B225" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="86" t="s">
         <v>711</v>
       </c>
       <c r="C225" s="8" t="s">
@@ -31839,6 +33391,11 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
+      <c r="W225" s="4"/>
+      <c r="X225" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Y225" s="4"/>
     </row>
     <row r="226" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
@@ -31878,6 +33435,9 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
+      <c r="W226" s="4"/>
+      <c r="X226" s="4"/>
+      <c r="Y226" s="4"/>
     </row>
     <row r="227" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
@@ -31917,9 +33477,9 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
-      <c r="W227" s="60"/>
-      <c r="X227" s="60"/>
-      <c r="Y227" s="60"/>
+      <c r="W227" s="4"/>
+      <c r="X227" s="4"/>
+      <c r="Y227" s="4"/>
       <c r="Z227" s="60"/>
       <c r="AA227" s="60"/>
       <c r="AB227" s="60"/>
@@ -32083,9 +33643,9 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
       <c r="V228" s="4"/>
-      <c r="W228" s="60"/>
-      <c r="X228" s="60"/>
-      <c r="Y228" s="60"/>
+      <c r="W228" s="4"/>
+      <c r="X228" s="4"/>
+      <c r="Y228" s="4"/>
       <c r="Z228" s="60"/>
       <c r="AA228" s="60"/>
       <c r="AB228" s="60"/>
@@ -32214,9 +33774,9 @@
     <row r="229" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B229" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="86" t="s">
         <v>723</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -32247,6 +33807,11 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
+      <c r="W229" s="4"/>
+      <c r="X229" s="4"/>
+      <c r="Y229" s="4" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="230" spans="1:149" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
@@ -32286,9 +33851,9 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
-      <c r="W230" s="60"/>
-      <c r="X230" s="60"/>
-      <c r="Y230" s="60"/>
+      <c r="W230" s="4"/>
+      <c r="X230" s="4"/>
+      <c r="Y230" s="4"/>
       <c r="Z230" s="60"/>
       <c r="AA230" s="60"/>
       <c r="AB230" s="60"/>
@@ -32452,6 +34017,9 @@
       </c>
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
+      <c r="W231" s="4"/>
+      <c r="X231" s="4"/>
+      <c r="Y231" s="4"/>
     </row>
     <row r="232" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
@@ -32489,6 +34057,9 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
+      <c r="W232" s="4"/>
+      <c r="X232" s="4"/>
+      <c r="Y232" s="4"/>
     </row>
     <row r="233" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
@@ -32528,9 +34099,9 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
-      <c r="W233" s="60"/>
-      <c r="X233" s="60"/>
-      <c r="Y233" s="60"/>
+      <c r="W233" s="4"/>
+      <c r="X233" s="4"/>
+      <c r="Y233" s="4"/>
       <c r="Z233" s="60"/>
       <c r="AA233" s="60"/>
       <c r="AB233" s="60"/>
@@ -32694,9 +34265,9 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
-      <c r="W234" s="60"/>
-      <c r="X234" s="60"/>
-      <c r="Y234" s="60"/>
+      <c r="W234" s="4"/>
+      <c r="X234" s="4"/>
+      <c r="Y234" s="4"/>
       <c r="Z234" s="60"/>
       <c r="AA234" s="60"/>
       <c r="AB234" s="60"/>
@@ -32860,6 +34431,9 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
+      <c r="W235" s="4"/>
+      <c r="X235" s="4"/>
+      <c r="Y235" s="4"/>
     </row>
     <row r="236" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
@@ -32899,6 +34473,9 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
+      <c r="W236" s="4"/>
+      <c r="X236" s="4"/>
+      <c r="Y236" s="4"/>
     </row>
     <row r="237" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
@@ -32938,6 +34515,9 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
+      <c r="W237" s="4"/>
+      <c r="X237" s="4"/>
+      <c r="Y237" s="4"/>
     </row>
     <row r="238" spans="1:149" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
@@ -32977,9 +34557,9 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
       <c r="V238" s="4"/>
-      <c r="W238" s="60"/>
-      <c r="X238" s="60"/>
-      <c r="Y238" s="60"/>
+      <c r="W238" s="4"/>
+      <c r="X238" s="4"/>
+      <c r="Y238" s="4"/>
       <c r="Z238" s="60"/>
       <c r="AA238" s="60"/>
       <c r="AB238" s="60"/>
@@ -33143,9 +34723,9 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
-      <c r="W239" s="60"/>
-      <c r="X239" s="60"/>
-      <c r="Y239" s="60"/>
+      <c r="W239" s="4"/>
+      <c r="X239" s="4"/>
+      <c r="Y239" s="4"/>
       <c r="Z239" s="60"/>
       <c r="AA239" s="60"/>
       <c r="AB239" s="60"/>
@@ -33307,10 +34887,13 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
       <c r="V240" s="4" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="241" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+      <c r="W240" s="4"/>
+      <c r="X240" s="4"/>
+      <c r="Y240" s="4"/>
+    </row>
+    <row r="241" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33346,10 +34929,13 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
       <c r="V241" s="4" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="242" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+      <c r="W241" s="4"/>
+      <c r="X241" s="4"/>
+      <c r="Y241" s="4"/>
+    </row>
+    <row r="242" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33387,8 +34973,11 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
-    </row>
-    <row r="243" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W242" s="4"/>
+      <c r="X242" s="4"/>
+      <c r="Y242" s="4"/>
+    </row>
+    <row r="243" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33426,8 +35015,11 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W243" s="4"/>
+      <c r="X243" s="4"/>
+      <c r="Y243" s="4"/>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33465,8 +35057,11 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
-    </row>
-    <row r="245" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W244" s="4"/>
+      <c r="X244" s="4"/>
+      <c r="Y244" s="4"/>
+    </row>
+    <row r="245" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33504,8 +35099,11 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
+      <c r="Y245" s="4"/>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33543,8 +35141,11 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
-    </row>
-    <row r="247" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W246" s="4"/>
+      <c r="X246" s="4"/>
+      <c r="Y246" s="4"/>
+    </row>
+    <row r="247" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33582,8 +35183,11 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
-    </row>
-    <row r="248" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W247" s="4"/>
+      <c r="X247" s="4"/>
+      <c r="Y247" s="4"/>
+    </row>
+    <row r="248" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33621,8 +35225,11 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
       <c r="V248" s="4"/>
-    </row>
-    <row r="249" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W248" s="4"/>
+      <c r="X248" s="4"/>
+      <c r="Y248" s="4"/>
+    </row>
+    <row r="249" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33660,8 +35267,11 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
-    </row>
-    <row r="250" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W249" s="4"/>
+      <c r="X249" s="4"/>
+      <c r="Y249" s="4"/>
+    </row>
+    <row r="250" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33699,8 +35309,11 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W250" s="4"/>
+      <c r="X250" s="4"/>
+      <c r="Y250" s="4"/>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33738,8 +35351,11 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
-    </row>
-    <row r="252" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W251" s="4"/>
+      <c r="X251" s="4"/>
+      <c r="Y251" s="4"/>
+    </row>
+    <row r="252" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33777,8 +35393,11 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W252" s="4"/>
+      <c r="X252" s="4"/>
+      <c r="Y252" s="4"/>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33816,8 +35435,11 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W253" s="4"/>
+      <c r="X253" s="4"/>
+      <c r="Y253" s="4"/>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33855,8 +35477,11 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
-    </row>
-    <row r="255" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W254" s="4"/>
+      <c r="X254" s="4"/>
+      <c r="Y254" s="4"/>
+    </row>
+    <row r="255" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33894,8 +35519,11 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
-    </row>
-    <row r="256" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="W255" s="4"/>
+      <c r="X255" s="4"/>
+      <c r="Y255" s="4"/>
+    </row>
+    <row r="256" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33933,8 +35561,11 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
-    </row>
-    <row r="257" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W256" s="4"/>
+      <c r="X256" s="4"/>
+      <c r="Y256" s="4"/>
+    </row>
+    <row r="257" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -33972,8 +35603,11 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
       <c r="V257" s="4"/>
-    </row>
-    <row r="258" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="W257" s="4"/>
+      <c r="X257" s="4"/>
+      <c r="Y257" s="4"/>
+    </row>
+    <row r="258" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -34011,10 +35645,13 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
       <c r="V258" s="4"/>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W258" s="4"/>
+      <c r="X258" s="4"/>
+      <c r="Y258" s="4"/>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <f t="shared" ref="A259" si="4">COUNTA(G259:V259)</f>
+        <f t="shared" ref="A259" si="4">COUNTA(G259:Y259)</f>
         <v>1</v>
       </c>
       <c r="B259" s="9" t="s">
@@ -34050,76 +35687,79 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
       <c r="V259" s="4"/>
+      <c r="W259" s="4"/>
+      <c r="X259" s="4"/>
+      <c r="Y259" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V259" xr:uid="{81462837-4B03-4AE6-9D15-23C331DE4000}"/>
+  <autoFilter ref="A1:Y259" xr:uid="{81462837-4B03-4AE6-9D15-23C331DE4000}"/>
   <conditionalFormatting sqref="B2:B113">
-    <cfRule type="duplicateValues" dxfId="78" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="77" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B78">
-    <cfRule type="duplicateValues" dxfId="76" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="75" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80 B82">
-    <cfRule type="duplicateValues" dxfId="74" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B85">
-    <cfRule type="duplicateValues" dxfId="72" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="71" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B103">
-    <cfRule type="duplicateValues" dxfId="70" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="69" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="duplicateValues" dxfId="68" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="67" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="duplicateValues" dxfId="66" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="duplicateValues" dxfId="65" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="61" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B121">
-    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B152">
-    <cfRule type="duplicateValues" dxfId="59" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B154">
-    <cfRule type="duplicateValues" dxfId="58" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:B158">
-    <cfRule type="duplicateValues" dxfId="57" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171:B208">
-    <cfRule type="duplicateValues" dxfId="56" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260:B1048576 B1 B159:B170">
-    <cfRule type="duplicateValues" dxfId="55" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34132,7 +35772,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34696,7 +36336,7 @@
   </sheetData>
   <autoFilter ref="A1:E26" xr:uid="{4BAB5EFA-E67F-443A-9AEB-83FD5FE49E7B}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="54" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34956,7 +36596,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34966,9 +36606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD547586-95B9-4FC7-80D9-DBF9FA92203D}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35031,7 +36671,7 @@
         <v>920</v>
       </c>
       <c r="P1" s="65" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="140.25" x14ac:dyDescent="0.2">
@@ -35238,7 +36878,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>383</v>
       </c>
@@ -37691,7 +39331,7 @@
         <v>538</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>25</v>
@@ -38148,7 +39788,7 @@
         <v>921</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -38182,7 +39822,7 @@
         <v>921</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -38216,7 +39856,7 @@
         <v>921</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -38250,7 +39890,7 @@
         <v>921</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -38265,7 +39905,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" ht="165" x14ac:dyDescent="0.2">
-      <c r="A97" s="86" t="s">
+      <c r="A97" s="6" t="s">
         <v>475</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -38284,7 +39924,7 @@
         <v>921</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -38299,7 +39939,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" ht="165" x14ac:dyDescent="0.2">
-      <c r="A98" s="86" t="s">
+      <c r="A98" s="6" t="s">
         <v>478</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -38318,7 +39958,7 @@
         <v>921</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -38333,7 +39973,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" ht="165" x14ac:dyDescent="0.2">
-      <c r="A99" s="86" t="s">
+      <c r="A99" s="6" t="s">
         <v>484</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -38352,7 +39992,7 @@
         <v>921</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -38367,7 +40007,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" ht="180" x14ac:dyDescent="0.2">
-      <c r="A100" s="86" t="s">
+      <c r="A100" s="6" t="s">
         <v>487</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -38386,7 +40026,7 @@
         <v>921</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -38404,75 +40044,75 @@
   <autoFilter ref="A1:P100" xr:uid="{BD547586-95B9-4FC7-80D9-DBF9FA92203D}"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="52" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A13">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="46" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="41" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A27">
-    <cfRule type="duplicateValues" dxfId="40" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A35">
-    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A40">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A87">
-    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:A91">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A95">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A100">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38484,8 +40124,8 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39116,37 +40756,37 @@
   <autoFilter ref="A1:L20" xr:uid="{E22EAC1F-00F7-4A2A-800D-F9EFD6D2E56D}"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A17">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39155,11 +40795,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A6847-9DA6-4C80-A58D-9540B1248A68}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39175,9 +40817,10 @@
     <col min="9" max="10" width="21.140625" style="25" customWidth="1"/>
     <col min="11" max="12" width="21.140625" customWidth="1"/>
     <col min="13" max="16" width="21.140625" style="25" customWidth="1"/>
+    <col min="17" max="19" width="20.140625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
@@ -39221,13 +40864,22 @@
         <v>920</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>1097</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>1135</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>146</v>
       </c>
@@ -39260,8 +40912,11 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>161</v>
       </c>
@@ -39294,8 +40949,11 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>164</v>
       </c>
@@ -39328,8 +40986,11 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>158</v>
       </c>
@@ -39362,8 +41023,11 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>170</v>
       </c>
@@ -39396,8 +41060,11 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>182</v>
       </c>
@@ -39430,8 +41097,11 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>152</v>
       </c>
@@ -39464,8 +41134,11 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>155</v>
       </c>
@@ -39498,8 +41171,11 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>660</v>
       </c>
@@ -39532,8 +41208,11 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>167</v>
       </c>
@@ -39566,8 +41245,11 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>173</v>
       </c>
@@ -39600,8 +41282,11 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>179</v>
       </c>
@@ -39634,8 +41319,11 @@
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>651</v>
       </c>
@@ -39666,8 +41354,11 @@
         <v>821</v>
       </c>
       <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="179.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>636</v>
       </c>
@@ -39687,7 +41378,7 @@
         <v>921</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -39700,24 +41391,372 @@
       <c r="P15" s="6" t="s">
         <v>821</v>
       </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
+        <v>821</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O14" xr:uid="{AA0A6847-9DA6-4C80-A58D-9540B1248A68}"/>
+  <autoFilter ref="A1:S24" xr:uid="{AA0A6847-9DA6-4C80-A58D-9540B1248A68}"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A9">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A12">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A15">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A22">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39792,7 +41831,7 @@
         <v>920</v>
       </c>
       <c r="P1" s="65" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -40733,7 +42772,7 @@
         <v>921</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="6"/>
@@ -40767,7 +42806,7 @@
         <v>921</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="6"/>
@@ -40801,7 +42840,7 @@
         <v>921</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="6"/>
@@ -40835,7 +42874,7 @@
         <v>921</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="6"/>
@@ -40869,7 +42908,7 @@
         <v>921</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="6"/>
@@ -40903,7 +42942,7 @@
         <v>921</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H34" s="53"/>
       <c r="I34" s="6"/>
@@ -40937,7 +42976,7 @@
         <v>921</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H35" s="53"/>
       <c r="I35" s="6"/>
@@ -40984,10 +43023,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF0CD7A-E630-4B5E-B712-1FD335D24B85}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41000,10 +43039,10 @@
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="104.42578125" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.7109375" customWidth="1"/>
+    <col min="9" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="25" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -41031,11 +43070,17 @@
       <c r="I1" s="29" t="s">
         <v>920</v>
       </c>
-      <c r="J1" s="65" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="185.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="185.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>806</v>
       </c>
@@ -41062,8 +43107,10 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>809</v>
       </c>
@@ -41090,8 +43137,10 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>812</v>
       </c>
@@ -41118,8 +43167,10 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>729</v>
       </c>
@@ -41146,8 +43197,10 @@
         <v>821</v>
       </c>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>708</v>
       </c>
@@ -41167,30 +43220,96 @@
         <v>921</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>821</v>
       </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>821</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I5" xr:uid="{8BF0CD7A-E630-4B5E-B712-1FD335D24B85}"/>
+  <autoFilter ref="A1:L8" xr:uid="{8BF0CD7A-E630-4B5E-B712-1FD335D24B85}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FE61E26D7E545D45A990707DF8177483" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0b443d2ad202a5719620d2b8bfcba14">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b28a555b-48d4-4e37-ad3a-ed5a0ba4fb97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19a2d0021065abe18290aea6213b5285" ns2:_="">
-    <xsd:import namespace="b28a555b-48d4-4e37-ad3a-ed5a0ba4fb97"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003C6624813135BD4F8F349448DB99967B" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="e2178f2593298956607bff2d17a16094">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed842817-99f7-441e-8757-9e5be0508bb8" xmlns:ns3="1e76ad1f-3099-4ae4-9d37-89d78bf8b533" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2eb0e474846d2f316ff7eea78d8bcf08" ns2:_="" ns3:_="">
+    <xsd:import namespace="ed842817-99f7-441e-8757-9e5be0508bb8"/>
+    <xsd:import namespace="1e76ad1f-3099-4ae4-9d37-89d78bf8b533"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -41199,12 +43318,19 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -41212,7 +43338,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b28a555b-48d4-4e37-ad3a-ed5a0ba4fb97" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ed842817-99f7-441e-8757-9e5be0508bb8" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -41225,14 +43351,16 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
@@ -41240,11 +43368,9 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
@@ -41257,6 +43383,71 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76ad1f-3099-4ae4-9d37-89d78bf8b533" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{592bc375-f91c-4e49-bbad-fd8c5668af7e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1e76ad1f-3099-4ae4-9d37-89d78bf8b533">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -41267,8 +43458,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -41358,52 +43549,40 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e76ad1f-3099-4ae4-9d37-89d78bf8b533" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed842817-99f7-441e-8757-9e5be0508bb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17C2E81D-A4D5-49B1-B1D0-60024DCE021E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F51E584B-BFFF-4125-AE3F-338DE8ACC28A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b28a555b-48d4-4e37-ad3a-ed5a0ba4fb97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D90A9203-BC81-4127-86E3-91422F619D72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b28a555b-48d4-4e37-ad3a-ed5a0ba4fb97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E5F742-37F5-4587-83D9-E1150DA23AD0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F51E584B-BFFF-4125-AE3F-338DE8ACC28A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17C2E81D-A4D5-49B1-B1D0-60024DCE021E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bfc874be-00a7-40b4-9742-389b25a52458"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
